--- a/beam_data.xlsx
+++ b/beam_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\NonlinearBeamModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\MultibodyNonlinearBeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D6648-3861-43D9-A633-BF2AF4EF3904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F534535E-EF8D-4381-8E2F-1C1E17E52294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9B579CF-1D70-40C4-8C25-997ED3B90A86}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Properties of the beams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Component</t>
   </si>
@@ -59,9 +60,6 @@
   </si>
   <si>
     <t>m1 [kg/m]</t>
-  </si>
-  <si>
-    <t>Highly Flex Wing</t>
   </si>
   <si>
     <t>c0 [m]</t>
@@ -118,6 +116,27 @@
   </si>
   <si>
     <t>n_elements</t>
+  </si>
+  <si>
+    <t>Cross section</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>NACA_2412.txt</t>
+  </si>
+  <si>
+    <t>NACA_0012.txt</t>
+  </si>
+  <si>
+    <t>Fuselage</t>
+  </si>
+  <si>
+    <t>Left Wing</t>
+  </si>
+  <si>
+    <t>Right Wing</t>
   </si>
 </sst>
 </file>
@@ -195,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -216,6 +235,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,301 +557,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84042242-3202-45EF-A4FF-A80CAF1786C0}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="7">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
         <v>20</v>
       </c>
-      <c r="C3" s="6">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.75</v>
       </c>
-      <c r="C5" s="2">
+      <c r="G6" s="2">
         <v>0.75</v>
       </c>
-      <c r="D5" s="2">
+      <c r="H6" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="I6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>-D70</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f>-3.5/5</f>
+        <v>-0.7</v>
+      </c>
+      <c r="E9" s="3">
+        <f>-3.5/5</f>
+        <v>-0.7</v>
+      </c>
+      <c r="F9" s="2">
+        <f>-2/16</f>
+        <v>-0.125</v>
+      </c>
+      <c r="G9" s="2">
+        <f>-1.5/10</f>
+        <v>-0.15</v>
+      </c>
+      <c r="H9" s="2">
         <f>-1/10</f>
         <v>-0.1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="I9" s="2">
+        <f>-2/16</f>
+        <v>-0.125</v>
+      </c>
+      <c r="J9" s="2">
+        <f>-1.5/10</f>
+        <v>-0.15</v>
+      </c>
+      <c r="K9" s="2">
         <f>-1/10</f>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>180</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>180</v>
+      </c>
+      <c r="F12" s="2">
+        <v>90</v>
+      </c>
+      <c r="G12" s="2">
+        <v>110</v>
+      </c>
+      <c r="H12" s="2">
+        <v>120</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-90</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-110</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="K14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
-        <v>90</v>
-      </c>
-      <c r="C11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-12</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="38" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="39" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/beam_data.xlsx
+++ b/beam_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\MultibodyNonlinearBeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F534535E-EF8D-4381-8E2F-1C1E17E52294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814795A-8F78-4A7F-A215-0C2DF828DD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9B579CF-1D70-40C4-8C25-997ED3B90A86}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Properties of the beams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Component</t>
   </si>
@@ -48,9 +47,6 @@
   </si>
   <si>
     <t>Connectivity</t>
-  </si>
-  <si>
-    <t>i_w [deg]</t>
   </si>
   <si>
     <t>L [m]</t>
@@ -137,6 +133,21 @@
   </si>
   <si>
     <t>Right Wing</t>
+  </si>
+  <si>
+    <t>AoI [deg]</t>
+  </si>
+  <si>
+    <t>Horizontal Tail</t>
+  </si>
+  <si>
+    <t>Vertical Tail</t>
+  </si>
+  <si>
+    <t>x_CM []</t>
+  </si>
+  <si>
+    <t>S1223.txt</t>
   </si>
 </sst>
 </file>
@@ -237,10 +248,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -557,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84042242-3202-45EF-A4FF-A80CAF1786C0}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,30 +580,37 @@
     <col min="1" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -624,45 +642,63 @@
       <c r="K2" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6">
         <v>10</v>
@@ -694,10 +730,19 @@
       <c r="K4" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="6">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
@@ -729,10 +774,19 @@
       <c r="K5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0.9</v>
@@ -764,46 +818,64 @@
       <c r="K6" s="2">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f>-D71</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <f>-D70</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
@@ -835,10 +907,19 @@
       <c r="K8" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -878,10 +959,22 @@
         <f>-1/10</f>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <f>-2/8</f>
+        <v>-0.25</v>
+      </c>
+      <c r="M9" s="2">
+        <f>-2/8</f>
+        <v>-0.25</v>
+      </c>
+      <c r="N9" s="2">
+        <f>-3/8</f>
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>0.5</v>
@@ -895,247 +988,346 @@
       <c r="E10" s="3">
         <v>0.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.25</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>0.25</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>0.25</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>0.25</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J11" s="2">
         <v>0.25</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <v>180</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>180</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>90</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>110</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
+        <v>130</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-90</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-110</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-130</v>
+      </c>
+      <c r="L13" s="2">
         <v>120</v>
       </c>
-      <c r="I12" s="2">
-        <v>-90</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-110</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="M13" s="2">
         <v>-120</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="N13" s="2">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-15</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>-10</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-10</v>
-      </c>
-      <c r="H13" s="2">
-        <v>-15</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>-10</v>
-      </c>
-      <c r="K13" s="2">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-10</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-12</v>
       </c>
       <c r="H14" s="2">
         <v>-15</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="K14" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-15</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-15</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-15</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-20</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>8</v>
-      </c>
-      <c r="K15" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>8</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>18</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <v>16</v>
       </c>
-      <c r="H16" s="2">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="H17" s="2">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>16</v>
       </c>
-      <c r="K16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K17" s="2">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1143,7 +1335,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1151,7 +1343,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1159,22 +1351,22 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1182,7 +1374,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1190,7 +1382,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1198,22 +1390,22 @@
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1221,7 +1413,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1229,7 +1421,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1237,20 +1429,20 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1276,12 +1468,21 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/beam_data.xlsx
+++ b/beam_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor\Documents\Arquivos\Mestrado ITA\Dissertação\Codes\MultibodyNonlinearBeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814795A-8F78-4A7F-A215-0C2DF828DD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6A0FA-BCF8-4227-9FDA-C5D08FEDB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9B579CF-1D70-40C4-8C25-997ED3B90A86}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
